--- a/04. Portfolio/CWinAPI/WinAPI.xlsx
+++ b/04. Portfolio/CWinAPI/WinAPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lewischangsinhahn/Portfolio/04. Portfolio/CWinAPI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\한창신\Desktop\Portfolio\04. Portfolio\CWinAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379F3D0A-6C33-B04A-9F57-AB43E00D40B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6C562A-5512-4B27-85F5-1E90CCAA143B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{C329C0E9-2C1A-9A48-BAA6-55757E0C5EA5}"/>
+    <workbookView xWindow="16980" yWindow="1110" windowWidth="28800" windowHeight="11385" xr2:uid="{C329C0E9-2C1A-9A48-BAA6-55757E0C5EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,12 +117,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -197,18 +204,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -227,15 +234,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -259,8 +266,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2438400"/>
-          <a:ext cx="5308600" cy="622300"/>
+          <a:off x="1657350" y="2847975"/>
+          <a:ext cx="5800725" cy="669925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -357,11 +364,72 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB9BFDA-467E-AC61-15D0-8A92F8D560E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1028700" y="1533525"/>
+          <a:ext cx="4438650" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -680,34 +748,34 @@
   <dimension ref="A2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="3"/>
+    <col min="5" max="7" width="10.77734375" style="3"/>
     <col min="8" max="8" width="39.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="9" max="16384" width="10.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -717,14 +785,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
@@ -738,16 +806,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
@@ -755,7 +823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,27 +836,27 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="5"/>
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
@@ -797,7 +865,9 @@
   <mergeCells count="1">
     <mergeCell ref="G5:G6"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/04. Portfolio/CWinAPI/WinAPI.xlsx
+++ b/04. Portfolio/CWinAPI/WinAPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\한창신\Desktop\Portfolio\04. Portfolio\CWinAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lewischangsinhahn/Portfolio/04. Portfolio/CWinAPI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6C562A-5512-4B27-85F5-1E90CCAA143B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F34BE98-4CB8-7B4C-97A6-7786A93F052F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="1110" windowWidth="28800" windowHeight="11385" xr2:uid="{C329C0E9-2C1A-9A48-BAA6-55757E0C5EA5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{C329C0E9-2C1A-9A48-BAA6-55757E0C5EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,13 +121,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -215,7 +215,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -366,61 +366,44 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB9BFDA-467E-AC61-15D0-8A92F8D560E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A7998F6-7319-9E77-29D6-AD2ACCBF247C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028700" y="1533525"/>
-          <a:ext cx="4438650" cy="1104900"/>
+          <a:off x="1473200" y="1612900"/>
+          <a:ext cx="3949700" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -429,7 +412,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -748,21 +731,21 @@
   <dimension ref="A2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.77734375" style="3"/>
+    <col min="5" max="7" width="10.83203125" style="3"/>
     <col min="8" max="8" width="39.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.77734375" style="3"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -785,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -806,7 +789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -823,7 +806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -844,7 +827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
